--- a/knowledge_graph/ontology/vocabulary_list.xlsx
+++ b/knowledge_graph/ontology/vocabulary_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data graph" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
   <si>
     <t xml:space="preserve">IRI</t>
   </si>
@@ -123,30 +123,33 @@
     <t xml:space="preserve">ff:Person → Literal^^xsd:boolean</t>
   </si>
   <si>
+    <t xml:space="preserve">ff:checkedPriorityClaims</t>
+  </si>
+  <si>
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
+    <t xml:space="preserve">ff:checksFundingProgram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:FundingProgram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:idlb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dc:title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dc:description</t>
+  </si>
+  <si>
     <t xml:space="preserve">ff:KinderzuschlagShape</t>
   </si>
   <si>
-    <t xml:space="preserve">ff:checksFundingProgram</t>
-  </si>
-  <si>
     <t xml:space="preserve">ff:Kinderzuschlag</t>
   </si>
   <si>
-    <t xml:space="preserve">ff:FundingProgram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ff:idlb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dc:title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dc:description</t>
-  </si>
-  <si>
     <t xml:space="preserve">ff:ChildProperty</t>
   </si>
   <si>
@@ -171,10 +174,22 @@
     <t xml:space="preserve">Add warnings for ambiguous requirements via a path that is never valid</t>
   </si>
   <si>
+    <t xml:space="preserve">ff:PriorityClaimsProperty</t>
+  </si>
+  <si>
     <t xml:space="preserve">ff:bruttoIncome</t>
   </si>
   <si>
     <t xml:space="preserve">ff:NonExistentPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:EmployeeProperty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:Eingliederungszuschuss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">The ontology is intended to conceptualize social service descriptions from the perspective of user profiles. It is not intended to capture the logic of the SHACL shapes graphs derived from the social service descriptions. Thus, when passing the ontology as context to an LLM, it can reuse the datafields that serve as building blocks for user profiles (otherwise we could not control the modelling depth and no meaningful comparison or validation would be possible) but it cannot simply copy the constraint logic used in the groundtruth.</t>
@@ -192,6 +207,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -212,12 +228,21 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -225,18 +250,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFCCCCCC"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -248,6 +269,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF158466"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF2A6099"/>
         <bgColor rgb="FF666699"/>
       </patternFill>
@@ -256,12 +283,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF158466"/>
-        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -311,84 +332,76 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -575,249 +588,1264 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G1023"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="25.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="1" style="1" width="25.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="2" width="25.95"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="9"/>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="9"/>
+      <c r="E7" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="E9" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="C10" s="9"/>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="E14" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="E15" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="E16" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="E20" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="E21" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="14"/>
-    </row>
+      <c r="E22" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="180" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="184" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="185" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="186" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="187" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="188" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="189" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="190" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="191" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="192" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="193" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="194" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="195" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="196" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="197" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="198" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="199" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="200" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="201" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="202" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="203" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="204" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="205" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="206" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="207" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="208" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="209" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="210" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="211" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="212" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="213" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="214" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="215" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="216" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="217" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="218" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="219" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="220" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="221" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="222" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="223" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="224" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="225" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="226" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="227" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="228" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="229" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="230" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="231" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="232" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="233" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="234" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="235" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="236" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="237" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="238" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="239" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="240" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="241" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="242" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="243" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="244" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="245" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="246" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="247" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="248" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="249" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="250" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="251" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="252" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="253" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="254" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="255" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="256" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="257" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="258" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="259" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="260" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="261" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="262" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="263" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="264" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="265" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="266" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="267" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="268" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="269" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="270" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="271" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="272" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="273" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="274" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="275" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="276" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="277" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="278" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="279" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="280" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="281" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="282" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="283" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="284" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="285" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="286" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="287" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="288" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="289" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="290" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="291" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="292" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="293" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="294" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="295" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="296" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="297" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="298" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="299" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="300" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="301" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="302" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="303" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="304" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="305" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="306" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="307" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="308" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="309" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="310" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="311" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="312" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="313" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="314" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="315" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="316" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="317" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="318" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="319" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="320" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="321" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="322" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="323" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="324" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="325" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="326" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="327" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="328" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="329" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="330" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="331" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="332" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="333" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="334" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="335" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="336" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="337" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="338" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="339" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="340" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="341" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="342" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="343" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="344" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="345" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="346" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="347" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="348" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="349" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="350" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="351" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="352" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="353" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="354" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="355" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="356" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="357" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="358" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="359" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="360" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="361" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="362" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="363" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="364" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="365" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="366" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="367" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="368" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="369" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="370" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="371" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="372" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="373" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="374" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="375" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="376" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="377" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="378" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="379" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="380" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="381" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="382" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="383" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="384" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="385" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="386" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="387" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="388" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="389" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="390" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="391" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="392" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="393" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="394" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="395" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="396" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="397" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="398" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="399" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="400" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="401" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="402" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="403" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="404" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="405" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="406" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="407" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="408" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="409" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="410" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="411" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="412" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="413" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="414" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="415" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="416" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="417" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="418" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="419" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="420" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="421" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="422" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="423" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="424" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="425" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="426" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="427" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="428" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="429" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="430" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="431" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="432" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="433" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="434" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="435" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="436" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="437" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="438" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="439" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="440" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="441" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="442" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="443" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="444" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="445" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="446" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="447" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="448" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="449" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="450" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="451" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="452" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="453" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="454" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="455" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="456" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="457" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="458" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="459" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="460" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="461" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="462" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="463" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="464" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="465" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="466" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="467" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="468" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="469" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="470" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="471" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="472" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="473" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="474" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="475" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="476" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="477" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="478" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="479" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="480" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="481" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="482" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="483" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="484" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="485" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="486" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="487" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="488" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="489" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="490" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="491" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="492" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="493" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="494" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="495" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="496" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="497" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="498" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="499" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="500" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="501" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="502" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="503" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="504" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="505" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="506" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="507" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="508" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="509" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="510" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="511" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="512" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="513" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="514" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="515" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="516" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="517" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="518" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="519" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="520" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="521" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="522" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="523" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="524" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="525" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="526" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="527" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="528" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="529" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="530" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="531" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="532" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="533" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="534" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="535" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="536" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="537" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="538" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="539" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="540" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="541" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="542" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="543" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="544" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="545" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="546" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="547" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="548" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="549" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="550" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="551" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="552" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="553" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="554" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="555" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="556" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="557" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="558" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="559" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="560" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="561" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="562" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="563" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="564" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="565" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="566" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="567" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="568" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="569" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="570" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="571" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="572" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="573" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="574" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="575" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="576" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="577" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="578" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="579" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="580" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="581" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="582" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="583" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="584" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="585" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="586" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="587" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="588" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="589" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="590" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="591" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="592" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="593" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="594" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="595" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="596" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="597" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="598" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="599" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="600" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="601" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="602" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="603" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="604" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="605" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="606" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="607" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="608" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="609" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="610" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="611" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="612" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="613" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="614" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="615" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="616" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="617" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="618" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="619" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="620" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="621" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="622" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="623" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="624" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="625" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="626" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="627" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="628" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="629" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="630" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="631" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="632" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="633" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="634" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="635" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="636" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="637" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="638" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="639" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="640" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="641" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="642" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="643" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="644" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="645" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="646" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="647" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="648" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="649" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="650" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="651" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="652" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="653" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="654" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="655" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="656" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="657" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="658" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="659" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="660" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="661" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="662" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="663" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="664" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="665" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="666" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="667" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="668" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="669" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="670" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="671" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="672" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="673" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="674" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="675" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="676" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="677" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="678" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="679" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="680" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="681" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="682" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="683" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="684" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="685" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="686" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="687" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="688" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="689" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="690" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="691" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="692" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="693" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="694" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="695" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="696" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="697" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="698" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="699" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="700" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="701" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="702" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="703" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="704" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="705" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="706" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="707" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="708" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="709" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="710" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="711" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="712" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="713" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="714" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="715" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="716" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="717" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="718" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="719" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="720" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="721" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="722" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="723" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="724" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="725" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="726" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="727" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="728" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="729" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="730" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="731" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="732" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="733" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="734" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="735" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="736" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="737" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="738" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="739" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="740" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="741" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="742" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="743" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="744" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="745" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="746" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="747" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="748" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="749" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="750" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="751" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="752" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="753" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="754" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="755" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="756" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="757" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="758" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="759" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="760" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="761" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="762" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="763" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="764" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="765" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="766" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="767" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="768" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="769" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="770" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="771" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="772" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="773" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="774" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="775" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="776" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="777" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="778" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="779" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="780" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="781" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="782" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="783" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="784" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="785" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="786" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="787" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="788" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="789" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="790" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="791" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="792" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="793" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="794" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="795" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="796" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="797" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="798" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="799" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="800" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="801" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="802" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="803" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="804" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="805" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="806" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="807" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="808" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="809" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="810" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="811" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="812" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="813" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="814" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="815" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="816" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="817" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="818" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="819" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="820" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="821" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="822" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="823" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="824" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="825" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="826" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="827" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="828" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="829" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="830" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="831" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="832" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="833" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="834" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="835" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="836" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="837" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="838" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="839" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="840" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="841" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="842" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="843" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="844" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="845" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="846" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="847" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="848" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="849" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="850" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="851" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="852" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="853" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="854" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="855" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="856" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="857" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="858" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="859" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="860" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="861" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="862" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="863" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="864" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="865" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="866" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="867" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="868" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="869" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="870" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="871" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="872" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="873" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="874" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="875" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="876" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="877" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="878" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="879" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="880" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="881" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="882" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="883" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="884" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="885" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="886" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="887" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="888" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="889" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="890" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="891" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="892" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="893" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="894" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="895" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="896" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="897" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="898" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="899" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="900" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="901" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="902" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="903" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="904" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="905" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="906" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="907" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="908" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="909" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="910" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="911" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="912" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="913" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="914" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="915" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="916" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="917" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="918" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="919" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="920" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="921" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="922" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="923" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="924" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="925" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="926" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="927" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="928" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="929" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="930" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="931" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="932" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="933" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="934" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="935" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="936" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="937" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="938" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="939" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="940" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="941" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="942" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="943" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="944" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="945" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="946" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="947" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="948" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="949" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="950" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="951" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="952" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="953" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="954" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="955" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="956" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="957" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="958" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="959" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="960" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="961" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="962" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="963" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="964" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="965" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="966" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="967" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="968" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="969" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="970" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="971" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="972" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="973" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="974" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="975" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="976" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="977" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="978" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="979" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="980" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="981" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="982" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="983" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="984" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="985" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="986" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="987" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="988" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="989" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="990" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="991" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="992" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="993" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="994" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="995" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="996" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="997" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="998" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="999" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1000" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1001" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1002" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1003" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1004" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1005" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1006" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1007" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1008" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1009" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1010" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1011" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1012" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1013" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1014" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1015" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1016" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1017" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1018" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1019" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1020" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1021" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1022" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1023" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -834,10 +1862,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -845,201 +1873,271 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="32.43"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="C18" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="C19" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="C20" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="C21" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
+      <c r="C22" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1064,12 +2162,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="90.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="90.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
-        <v>51</v>
+      <c r="A1" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/knowledge_graph/ontology/vocabulary_list.xlsx
+++ b/knowledge_graph/ontology/vocabulary_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data graph" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="87">
   <si>
     <t xml:space="preserve">IRI</t>
   </si>
@@ -63,19 +63,37 @@
     <t xml:space="preserve">ff:MaritalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">ff:single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disjoint of married, disjoint of registeredPartnership</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ff:married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disjoint of registeredPartnership</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ff:reigsteredPartnership</t>
+    <t xml:space="preserve">ff:Single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disjoint of Married, disjoint of RegisteredPartnershi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:Married</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disjoint of RegisteredPartnership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:RegisteredPartnership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:AveragePerformance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disjoint of BeloAveragePerformance, AboveAveragePerformance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:BelowAveragePerformance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disjoint of AboveAveragePreformance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:AboveAveragePerformance</t>
   </si>
   <si>
     <t xml:space="preserve">OBJECT PROPERTIES</t>
@@ -102,6 +120,12 @@
     <t xml:space="preserve">symmetric</t>
   </si>
   <si>
+    <t xml:space="preserve">ff:expectedPerformance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:Person → ff:Performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">DATA PROPERTIES</t>
   </si>
   <si>
@@ -126,6 +150,9 @@
     <t xml:space="preserve">ff:checkedPriorityClaims</t>
   </si>
   <si>
+    <t xml:space="preserve">ff:integrationRequiresSubsidy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
@@ -177,19 +204,82 @@
     <t xml:space="preserve">ff:PriorityClaimsProperty</t>
   </si>
   <si>
+    <t xml:space="preserve">Person → Literal (int)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person → MaritalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:Single </t>
+  </si>
+  <si>
+    <t xml:space="preserve">subclass of ff:MaritalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implied, subclass of ff:MaritalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person → Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amount of child benefit a child receives in euros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person → Literal (bool)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ff:bruttoIncome</t>
   </si>
   <si>
+    <t xml:space="preserve">Person → Literal (float)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ff:NonExistentPath</t>
   </si>
   <si>
-    <t xml:space="preserve">ff:EmployeeProperty</t>
+    <t xml:space="preserve">always invalid, always triggers warning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subclass of ff:Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:ProspectiveEmployeeProperty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checks if prospective employee has below average expected performance and requires subsidy to be integrated long term</t>
   </si>
   <si>
     <t xml:space="preserve">ff:Eingliederungszuschuss</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
+    <t xml:space="preserve">subclass of ff:FundingProgram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:EingliederungszuschussShape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:wantsToEmploy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:Employer → ff:Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:expectedPeformance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subclass of ff:Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implied, subclass of ff:Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:AboveAveragePerformace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff:Employee → Literal (boolean)</t>
   </si>
   <si>
     <t xml:space="preserve">The ontology is intended to conceptualize social service descriptions from the perspective of user profiles. It is not intended to capture the logic of the SHACL shapes graphs derived from the social service descriptions. Thus, when passing the ontology as context to an LLM, it can reuse the datafields that serve as building blocks for user profiles (otherwise we could not control the modelling depth and no meaningful comparison or validation would be possible) but it cannot simply copy the constraint logic used in the groundtruth.</t>
@@ -202,7 +292,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -259,6 +349,18 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -276,7 +378,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2A6099"/>
-        <bgColor rgb="FF666699"/>
+        <bgColor rgb="FF158466"/>
       </patternFill>
     </fill>
     <fill>
@@ -332,7 +434,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -373,6 +475,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -398,6 +504,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -462,7 +576,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -588,10 +702,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1023"/>
+  <dimension ref="A1:G1027"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.94921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -729,83 +843,102 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="C11" s="9"/>
+      <c r="F11" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="C12" s="9"/>
-    </row>
-    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="F12" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="9"/>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="F15" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="12"/>
-    </row>
-    <row r="18" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="12"/>
-    </row>
-    <row r="19" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="E19" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="8" t="s">
         <v>28</v>
       </c>
@@ -813,49 +946,119 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="D21" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="E21" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="B22" s="13"/>
       <c r="C22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F22" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="13"/>
+    </row>
+    <row r="24" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="13"/>
+    </row>
     <row r="34" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="35" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1846,6 +2049,10 @@
     <row r="1021" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1022" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1023" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1024" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1025" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1026" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1027" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1862,10 +2069,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1874,23 +2081,23 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>8</v>
@@ -1901,7 +2108,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
@@ -1912,7 +2119,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>8</v>
@@ -1923,7 +2130,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>8</v>
@@ -1934,7 +2141,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>8</v>
@@ -1956,7 +2163,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>8</v>
@@ -1964,7 +2171,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>8</v>
@@ -1972,10 +2179,10 @@
     </row>
     <row r="10" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>8</v>
@@ -1983,7 +2190,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>8</v>
@@ -1991,7 +2198,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>8</v>
@@ -1999,10 +2206,10 @@
     </row>
     <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>8</v>
@@ -2010,10 +2217,10 @@
     </row>
     <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>8</v>
@@ -2021,36 +2228,37 @@
     </row>
     <row r="15" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="8"/>
+        <v>59</v>
+      </c>
       <c r="C16" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="8"/>
+        <v>41</v>
+      </c>
       <c r="C17" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>8</v>
@@ -2058,7 +2266,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>8</v>
@@ -2066,31 +2277,43 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>23</v>
+        <v>62</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>29</v>
+    <row r="21" s="19" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>31</v>
+    <row r="22" s="19" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>51</v>
+    <row r="23" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>8</v>
@@ -2098,46 +2321,177 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row r="25" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" s="19" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" s="19" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -2166,8 +2520,8 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>56</v>
+      <c r="A1" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
